--- a/EmotionRegulation/EmotionRegulationAsset/Results/Pedro_Neuroticism.xlsx
+++ b/EmotionRegulation/EmotionRegulationAsset/Results/Pedro_Neuroticism.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R788cb65558884a9f"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R59787f2313b24c94"/>
   </x:sheets>
 </x:workbook>
 </file>
